--- a/file/仪表自动化测试用例汇总_v1.4.xlsx
+++ b/file/仪表自动化测试用例汇总_v1.4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\chinatsp\projects\820\3S1\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\code\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">测试用例!$A$1:$P$231</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="pre - 个人视图" guid="{68083BDC-08EF-46C2-A73C-B195E5EBD89A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
+    <customWorkbookView name="Administrator - 个人视图" guid="{070CFFD9-5D8E-475F-BA43-81A3DB4C8C78}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
     <customWorkbookView name="Baiwanhong - 个人视图" guid="{D8C7508F-2F45-4ED6-8DC3-AAFB8E60A297}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1616" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - 个人视图" guid="{070CFFD9-5D8E-475F-BA43-81A3DB4C8C78}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
-    <customWorkbookView name="pre - 个人视图" guid="{68083BDC-08EF-46C2-A73C-B195E5EBD89A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="1980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="1981">
   <si>
     <t>1.电源状态：ACC
 2.所有指示灯均熄灭</t>
@@ -8345,6 +8345,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDC_LightON.bmp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9680,10 +9684,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="P226" sqref="P226"/>
+      <selection pane="bottomLeft" activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17372,7 +17376,7 @@
         <v>1303</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>1255</v>
+        <v>1980</v>
       </c>
       <c r="M148" s="7" t="s">
         <v>948</v>
@@ -21460,8 +21464,8 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{D8C7508F-2F45-4ED6-8DC3-AAFB8E60A297}">
-      <selection activeCell="C6" sqref="C6"/>
+    <customSheetView guid="{68083BDC-08EF-46C2-A73C-B195E5EBD89A}">
+      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
@@ -21470,8 +21474,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{68083BDC-08EF-46C2-A73C-B195E5EBD89A}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{D8C7508F-2F45-4ED6-8DC3-AAFB8E60A297}">
+      <selection activeCell="C6" sqref="C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
     </customSheetView>
@@ -21588,7 +21592,7 @@
   <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
